--- a/2022年E题第2问/问题二结果.xlsx
+++ b/2022年E题第2问/问题二结果.xlsx
@@ -473,16 +473,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>12.28045749664307</v>
+        <v>2.440658807754517</v>
       </c>
       <c r="D2" t="n">
-        <v>40.62970733642578</v>
+        <v>21.39930152893066</v>
       </c>
       <c r="E2" t="n">
-        <v>81.25038146972656</v>
+        <v>44.255126953125</v>
       </c>
       <c r="F2" t="n">
-        <v>166.06005859375</v>
+        <v>164.3124389648438</v>
       </c>
     </row>
     <row r="3">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>18.94600296020508</v>
+        <v>26.55034446716309</v>
       </c>
       <c r="D3" t="n">
-        <v>50.20634078979492</v>
+        <v>54.83498764038086</v>
       </c>
       <c r="E3" t="n">
-        <v>56.55230331420898</v>
+        <v>69.98279571533203</v>
       </c>
       <c r="F3" t="n">
-        <v>166.8999176025391</v>
+        <v>168.9540557861328</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>17.45866394042969</v>
+        <v>14.4405517578125</v>
       </c>
       <c r="D4" t="n">
-        <v>49.99311447143555</v>
+        <v>36.30783843994141</v>
       </c>
       <c r="E4" t="n">
-        <v>56.76531600952148</v>
+        <v>89.16252136230469</v>
       </c>
       <c r="F4" t="n">
-        <v>167.053466796875</v>
+        <v>168.1646118164062</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +533,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>19.08845520019531</v>
+        <v>10.39126110076904</v>
       </c>
       <c r="D5" t="n">
-        <v>67.10861968994141</v>
+        <v>2.202657461166382</v>
       </c>
       <c r="E5" t="n">
-        <v>46.61319732666016</v>
+        <v>50.16037368774414</v>
       </c>
       <c r="F5" t="n">
-        <v>167.2318725585938</v>
+        <v>172.6052551269531</v>
       </c>
     </row>
     <row r="6">
@@ -553,16 +553,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>12.00634479522705</v>
+        <v>15.68188953399658</v>
       </c>
       <c r="D6" t="n">
-        <v>41.3121452331543</v>
+        <v>24.89544296264648</v>
       </c>
       <c r="E6" t="n">
-        <v>86.50293731689453</v>
+        <v>39.86222457885742</v>
       </c>
       <c r="F6" t="n">
-        <v>168.0535583496094</v>
+        <v>174.1584320068359</v>
       </c>
     </row>
     <row r="7">
@@ -573,16 +573,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>27.51157569885254</v>
+        <v>11.45777130126953</v>
       </c>
       <c r="D7" t="n">
-        <v>68.10749816894531</v>
+        <v>-34.79714965820312</v>
       </c>
       <c r="E7" t="n">
-        <v>30.3540210723877</v>
+        <v>20.69882011413574</v>
       </c>
       <c r="F7" t="n">
-        <v>169.2940368652344</v>
+        <v>169.0193328857422</v>
       </c>
     </row>
     <row r="8">
@@ -593,16 +593,16 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>13.9707555770874</v>
+        <v>12.9628210067749</v>
       </c>
       <c r="D8" t="n">
-        <v>21.25006103515625</v>
+        <v>78.86756134033203</v>
       </c>
       <c r="E8" t="n">
-        <v>113.5479431152344</v>
+        <v>114.0831451416016</v>
       </c>
       <c r="F8" t="n">
-        <v>169.527099609375</v>
+        <v>160.9909973144531</v>
       </c>
     </row>
     <row r="9">
@@ -613,16 +613,16 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>13.01059532165527</v>
+        <v>9.249122619628906</v>
       </c>
       <c r="D9" t="n">
-        <v>62.94159317016602</v>
+        <v>21.15345573425293</v>
       </c>
       <c r="E9" t="n">
-        <v>61.82419967651367</v>
+        <v>84.53463745117188</v>
       </c>
       <c r="F9" t="n">
-        <v>169.3292541503906</v>
+        <v>173.1129150390625</v>
       </c>
     </row>
     <row r="10">
@@ -633,16 +633,16 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>8.687759399414062</v>
+        <v>12.88474369049072</v>
       </c>
       <c r="D10" t="n">
-        <v>49.84474945068359</v>
+        <v>44.58340835571289</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7102361917495728</v>
+        <v>156.8888702392578</v>
       </c>
       <c r="F10" t="n">
-        <v>166.9116973876953</v>
+        <v>158.3443145751953</v>
       </c>
     </row>
     <row r="11">
@@ -653,16 +653,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>8.314950942993164</v>
+        <v>12.84291458129883</v>
       </c>
       <c r="D11" t="n">
-        <v>34.32047271728516</v>
+        <v>36.17906951904297</v>
       </c>
       <c r="E11" t="n">
-        <v>65.09267425537109</v>
+        <v>-35.5867805480957</v>
       </c>
       <c r="F11" t="n">
-        <v>166.1575012207031</v>
+        <v>170.6501770019531</v>
       </c>
     </row>
     <row r="12">
@@ -673,16 +673,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>15.34460258483887</v>
+        <v>22.40510749816895</v>
       </c>
       <c r="D12" t="n">
-        <v>56.76383209228516</v>
+        <v>11.88783931732178</v>
       </c>
       <c r="E12" t="n">
-        <v>95.35207366943359</v>
+        <v>-67.26371002197266</v>
       </c>
       <c r="F12" t="n">
-        <v>170.80615234375</v>
+        <v>168.6321868896484</v>
       </c>
     </row>
     <row r="13">
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>15.98565769195557</v>
+        <v>-0.7505728006362915</v>
       </c>
       <c r="D13" t="n">
-        <v>57.3244743347168</v>
+        <v>50.46486663818359</v>
       </c>
       <c r="E13" t="n">
-        <v>73.96383666992188</v>
+        <v>30.15809059143066</v>
       </c>
       <c r="F13" t="n">
-        <v>173.9618225097656</v>
+        <v>171.6515045166016</v>
       </c>
     </row>
     <row r="14">
@@ -713,16 +713,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>13.01389980316162</v>
+        <v>3.410297870635986</v>
       </c>
       <c r="D14" t="n">
-        <v>37.42465591430664</v>
+        <v>21.22194862365723</v>
       </c>
       <c r="E14" t="n">
-        <v>73.94346618652344</v>
+        <v>50.71525955200195</v>
       </c>
       <c r="F14" t="n">
-        <v>166.2769927978516</v>
+        <v>165.6701202392578</v>
       </c>
     </row>
     <row r="15">
@@ -733,16 +733,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>19.78150367736816</v>
+        <v>28.00045204162598</v>
       </c>
       <c r="D15" t="n">
-        <v>49.47457504272461</v>
+        <v>52.32316589355469</v>
       </c>
       <c r="E15" t="n">
-        <v>59.60958862304688</v>
+        <v>72.91023254394531</v>
       </c>
       <c r="F15" t="n">
-        <v>167.3955230712891</v>
+        <v>168.1689910888672</v>
       </c>
     </row>
     <row r="16">
@@ -753,16 +753,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>17.6786937713623</v>
+        <v>16.82013511657715</v>
       </c>
       <c r="D16" t="n">
-        <v>49.6538200378418</v>
+        <v>31.48569869995117</v>
       </c>
       <c r="E16" t="n">
-        <v>56.00981521606445</v>
+        <v>85.08913421630859</v>
       </c>
       <c r="F16" t="n">
-        <v>167.1066131591797</v>
+        <v>169.3002471923828</v>
       </c>
     </row>
     <row r="17">
@@ -773,16 +773,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>18.87497520446777</v>
+        <v>10.35886764526367</v>
       </c>
       <c r="D17" t="n">
-        <v>65.96839904785156</v>
+        <v>2.146684885025024</v>
       </c>
       <c r="E17" t="n">
-        <v>52.52082443237305</v>
+        <v>49.77042770385742</v>
       </c>
       <c r="F17" t="n">
-        <v>167.3531494140625</v>
+        <v>172.6142272949219</v>
       </c>
     </row>
     <row r="18">
@@ -793,16 +793,16 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>12.00634479522705</v>
+        <v>10.79888439178467</v>
       </c>
       <c r="D18" t="n">
-        <v>41.3121452331543</v>
+        <v>25.16850280761719</v>
       </c>
       <c r="E18" t="n">
-        <v>86.50293731689453</v>
+        <v>52.6754150390625</v>
       </c>
       <c r="F18" t="n">
-        <v>168.0535583496094</v>
+        <v>171.8312072753906</v>
       </c>
     </row>
     <row r="19">
@@ -813,16 +813,16 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>27.43524742126465</v>
+        <v>8.933211326599121</v>
       </c>
       <c r="D19" t="n">
-        <v>67.97581481933594</v>
+        <v>-26.97367286682129</v>
       </c>
       <c r="E19" t="n">
-        <v>31.08590126037598</v>
+        <v>4.640895366668701</v>
       </c>
       <c r="F19" t="n">
-        <v>169.3057556152344</v>
+        <v>170.5857238769531</v>
       </c>
     </row>
     <row r="20">
@@ -833,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>14.001296043396</v>
+        <v>12.72259044647217</v>
       </c>
       <c r="D20" t="n">
-        <v>28.3597240447998</v>
+        <v>77.66990661621094</v>
       </c>
       <c r="E20" t="n">
-        <v>99.08300018310547</v>
+        <v>106.3052291870117</v>
       </c>
       <c r="F20" t="n">
-        <v>168.2679443359375</v>
+        <v>160.0299682617188</v>
       </c>
     </row>
     <row r="21">
@@ -853,16 +853,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>17.37032699584961</v>
+        <v>8.092912673950195</v>
       </c>
       <c r="D21" t="n">
-        <v>43.38898086547852</v>
+        <v>62.16931533813477</v>
       </c>
       <c r="E21" t="n">
-        <v>44.0222282409668</v>
+        <v>15.23366165161133</v>
       </c>
       <c r="F21" t="n">
-        <v>167.9351654052734</v>
+        <v>174.7239074707031</v>
       </c>
     </row>
     <row r="22">
@@ -873,16 +873,16 @@
         <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>8.59874153137207</v>
+        <v>12.76573753356934</v>
       </c>
       <c r="D22" t="n">
-        <v>47.81246948242188</v>
+        <v>41.5195198059082</v>
       </c>
       <c r="E22" t="n">
-        <v>7.080977439880371</v>
+        <v>146.8959655761719</v>
       </c>
       <c r="F22" t="n">
-        <v>167.3516998291016</v>
+        <v>159.3113861083984</v>
       </c>
     </row>
   </sheetData>
